--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/menu/APP-80000-5820-zero.wm-employee-w-SIDE.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/menu/APP-80000-5820-zero.wm-employee-w-SIDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5C0FB2-0786-EA4C-B616-F27901E75FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08092EB2-0248-2F44-8CC6-13CBE8156BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41120" yWindow="-100" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-76800" yWindow="-3040" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>icon</t>
   </si>
   <si>
-    <t>排序</t>
-  </si>
-  <si>
     <t>parentId</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>菜单类型</t>
   </si>
   <si>
-    <t>菜单级别</t>
-  </si>
-  <si>
     <t>菜单名称</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
   </si>
   <si>
     <t>菜单URI地址</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>text</t>
@@ -337,9 +325,6 @@
   <si>
     <t>pull-request</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>726d859f-ec1c-4010-904c-52500dd84223</t>
   </si>
   <si>
     <t>职员管理流程</t>
@@ -418,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,14 +440,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -485,11 +464,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -534,14 +550,15 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,642 +874,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="48.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="21"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6">
-        <v>5820</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
         <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E6" s="18">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
         <v>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E7" s="19">
-        <v>4</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" ref="B8:B9" si="0">A$6</f>
         <v>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E8" s="19">
-        <v>4</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>c9ea20a1-ab0c-4f55-9edb-a483f6a459ec</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E9" s="19">
-        <v>4</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="12"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$5</f>
         <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E10" s="18">
-        <v>3</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>A$10</f>
         <v>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E11" s="19">
-        <v>4</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" ref="B12:B13" si="1">A$10</f>
         <v>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>720cf9bd-5498-4b5d-8ae7-1f22a270dadc</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E13" s="19">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>A$5</f>
         <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E14" s="18">
-        <v>3</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$14</f>
         <v>ee0da11a-d282-4fcc-87f5-e06083b164fb</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E15" s="19">
-        <v>4</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16:B17" si="2">A$14</f>
         <v>ee0da11a-d282-4fcc-87f5-e06083b164fb</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="2"/>
         <v>ee0da11a-d282-4fcc-87f5-e06083b164fb</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>A$5</f>
         <v>fab35abe-6029-4bec-8a8d-8e88ea3fb550</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1020</v>
-      </c>
-      <c r="E18" s="18">
-        <v>3</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>A$18</f>
         <v>227d46ea-ab66-4de3-8d2e-ec969e0be08d</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1005</v>
-      </c>
-      <c r="E19" s="19">
-        <v>4</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" ref="B20:B21" si="3">A$18</f>
         <v>227d46ea-ab66-4de3-8d2e-ec969e0be08d</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1010</v>
-      </c>
-      <c r="E20" s="19">
-        <v>4</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>227d46ea-ab66-4de3-8d2e-ec969e0be08d</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1015</v>
-      </c>
-      <c r="E21" s="19">
-        <v>4</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
